--- a/data/trans_dic/P16B04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,83%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>51,42; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>71,63; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>66,89; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>77,66; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>63,9; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>66,97; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>77,59; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>87,05; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>81,24; 98,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>49,05; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>37,69; 82,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>72,12; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>52,3; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>79,7; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>54,63; 86,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,71%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>70,18; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>57,89; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>68,6; 96,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>77,12; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>65,73; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>83,84; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>77,68; 95,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>76,17; 95,91</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,24%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>87,85; 98,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>74,65; 91,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>86,59; 98,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>85,91; 98,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>88,43; 99,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>87,13; 98,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>89,62; 98,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>84,42; 94,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>89,94; 98,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,73%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>58,65; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>72,0; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>72,86; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>83,81; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>63,9; 100,0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>90,51; 100</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>73,58; 100</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,42; 100,0</t>
+          <t>66,97; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>77,59; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,63; 100,0</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,89; 100,0</t>
+          <t>87,05; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,84; 100</t>
+          <t>81,24; 98,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,66; 100,0</t>
+          <t>95,34; 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>63,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>72,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,73; 100</t>
+          <t>49,05; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>63,9; 100,0</t>
+          <t>37,69; 82,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,51; 100</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,97; 100,0</t>
+          <t>72,12; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,59; 100,0</t>
+          <t>52,3; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,36; 100</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,05; 100,0</t>
+          <t>79,7; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,24; 98,59</t>
+          <t>54,63; 86,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100</t>
+          <t>90,95; 100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>82,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,98%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,71%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,05; 100,0</t>
+          <t>70,18; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,69; 82,57</t>
+          <t>57,89; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>68,6; 96,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,12; 100,0</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,3; 100,0</t>
+          <t>77,12; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>65,73; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,7; 100,0</t>
+          <t>83,84; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,63; 86,01</t>
+          <t>77,68; 95,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,95; 100</t>
+          <t>76,17; 95,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,91%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>95,24%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,18; 100,0</t>
+          <t>87,85; 98,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,89; 100,0</t>
+          <t>74,65; 91,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,6; 96,16</t>
+          <t>86,59; 98,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,51; 100</t>
+          <t>85,91; 98,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>77,12; 100,0</t>
+          <t>88,43; 99,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,73; 100,0</t>
+          <t>87,13; 98,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,84; 100,0</t>
+          <t>89,62; 98,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,68; 95,8</t>
+          <t>84,42; 94,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,17; 95,91</t>
+          <t>89,94; 98,05</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>95,52%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>85,2%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>95,18%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>95,22%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>95,3%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>95,29%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>95,35%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>90,42%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>95,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>87,85; 98,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>74,65; 91,91</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>86,59; 98,47</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>85,91; 98,61</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>88,43; 99,01</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>87,13; 98,88</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>89,62; 98,2</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>84,42; 94,15</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>89,94; 98,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,65; 100,0</t>
+          <t>51,05; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,0; 100,0</t>
+          <t>69,7; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,86; 100,0</t>
+          <t>68,13; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,81; 100,0</t>
+          <t>83,79; 100,0</t>
         </is>
       </c>
     </row>
@@ -800,7 +801,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,9; 100,0</t>
+          <t>62,99; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,97; 100,0</t>
+          <t>74,09; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,59; 100,0</t>
+          <t>77,82; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,05; 100,0</t>
+          <t>89,03; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,24; 98,59</t>
+          <t>81,22; 98,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,05; 100,0</t>
+          <t>57,14; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,69; 82,57</t>
+          <t>38,98; 82,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,12; 100,0</t>
+          <t>76,78; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,3; 100,0</t>
+          <t>61,64; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,7; 100,0</t>
+          <t>79,94; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,63; 86,01</t>
+          <t>54,3; 86,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,17 +1016,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,18; 100,0</t>
+          <t>68,86; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,89; 100,0</t>
+          <t>56,53; 94,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,6; 96,16</t>
+          <t>68,78; 96,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,27 +1036,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,12; 100,0</t>
+          <t>78,1; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,73; 100,0</t>
+          <t>68,13; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,84; 100,0</t>
+          <t>85,77; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,68; 95,8</t>
+          <t>77,38; 95,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76,17; 95,91</t>
+          <t>74,62; 96,01</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,85; 98,61</t>
+          <t>87,98; 98,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,65; 91,91</t>
+          <t>75,8; 91,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,59; 98,47</t>
+          <t>86,99; 98,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,91; 98,61</t>
+          <t>86,45; 98,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,43; 99,01</t>
+          <t>88,44; 98,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,13; 98,88</t>
+          <t>85,23; 98,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,62; 98,2</t>
+          <t>90,43; 98,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,42; 94,15</t>
+          <t>84,91; 94,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,94; 98,05</t>
+          <t>89,56; 98,0</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas antibióticas fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25937</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12227</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10501</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20248</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14140</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18113</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46185</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26366</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6032; 7611</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23792; 25937</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10309; 12227</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5893; 11544</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18326; 20248</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10476; 15030</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13051; 19156</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44084; 46185</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22837; 27256</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24929</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27957</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19715</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17306</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41089</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21929</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42235</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>69046</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41644</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22868; 24929</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19791; 31418</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17843; 19715</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13675; 18457</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33429; 42955</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20034; 21929</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>38626; 43386</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>60407; 73355</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>39704; 41644</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8181</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13300</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8987</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23995</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10315</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14956</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32175</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23614</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23944</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5216; 9129</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8212; 17339</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7122; 8987</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19483; 25376</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6960; 11291</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12787; 14956</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27582; 34504</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17568; 27983</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21778; 23944</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15313</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13694</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23902</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19413</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24908</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24139</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34726</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38602</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48041</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11701; 16993</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9337; 15672</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18699; 26151</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17570; 19413</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20950; 26824</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18371; 26964</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31224; 36406</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33540; 41517</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40407; 51993</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>56035</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>80888</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>64832</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>71216</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>96559</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>75164</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>127249</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>177448</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>139996</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>51613; 57852</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>71967; 87020</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>59252; 67077</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>64658; 73732</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>89603; 99474</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>67230; 77955</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>120679; 130909</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>166649; 184605</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>131643; 144053</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>